--- a/cea/databases/CH/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/CH/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\Speed2Zero\Trails Simulation\New_CH\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C031F57C-C811-495C-AA59-F3B4F6083079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDF3FF-1FEE-4D78-B93D-B4EE428675E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId1"/>
@@ -43,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,12 +92,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +141,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -190,12 +190,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -239,12 +239,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -288,12 +288,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -337,12 +337,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -386,12 +386,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -435,12 +435,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -484,38 +484,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="61">
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 45.020 CH-Verbrauchermix, cost from CEA</t>
-  </si>
-  <si>
     <t>from CEA, costs in USD-2015, CH-zurich-stormtariff 2017</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 41.001 Heizöl, cost from CEA</t>
-  </si>
-  <si>
     <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
-  </si>
-  <si>
     <t>hour</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 41.002 Erdgas, cost from Werke am Zurich see</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 41.009 Biogas, cost from CEA,cost from Werke am Zurich see</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -664,16 +646,190 @@
   </si>
   <si>
     <t>Opex_var_sell_USD2015kWh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 45.020 CH-Verbrauchermix, cost from CEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 41.009 Biogas, cost from CEA,cost from Werke am Zurich see</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 41.002 Erdgas, cost from Werke am Zurich see</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 41.001 Heizöl, cost from CEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 41.006 Stückholz (average), cost from CEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42.011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kehrichtverbrennung, cost from CEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KBOB / ecobau / IPB  2009/1:2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ID 42.011 Kehrichtverbrennung, cost from CEA</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -713,6 +869,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,7 +943,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,9 +958,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,11 +1390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,16 +1408,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1262,11 +1425,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.228/3.6</f>
-        <v>6.3333333333333339E-2</v>
+        <f>0.23/3.6</f>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C2" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1275,16 +1438,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="0">0.228/3.6</f>
-        <v>6.3333333333333339E-2</v>
+        <f t="shared" ref="B3:B25" si="0">0.23/3.6</f>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C3" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1293,16 +1456,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C4" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1311,16 +1474,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C5" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1329,16 +1492,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C6" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1347,16 +1510,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C7" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1365,16 +1528,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C8" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1383,16 +1546,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C9" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1401,16 +1564,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C10" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1419,16 +1582,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C11" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1437,16 +1600,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C12" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1455,16 +1618,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C13" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1473,16 +1636,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C14" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1491,16 +1654,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C15" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1509,16 +1672,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C16" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1527,16 +1690,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C17" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1545,16 +1708,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C18" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1563,16 +1726,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C19" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1581,16 +1744,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C20" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1599,16 +1762,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C21" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1617,16 +1780,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C22" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1635,16 +1798,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C23" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1653,16 +1816,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C24" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1671,16 +1834,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="C25" s="3">
         <v>8.5000000000000006E-2</v>
@@ -1689,7 +1852,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1702,17 +1865,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
@@ -1720,16 +1883,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1737,11 +1900,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.13/3.6</f>
-        <v>3.6111111111111115E-2</v>
+        <f>0.124/3.6</f>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C2" s="3">
         <v>0.17</v>
@@ -1750,16 +1913,16 @@
         <v>0.17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="0">0.13/3.6</f>
-        <v>3.6111111111111115E-2</v>
+        <f t="shared" ref="B3:B25" si="0">0.124/3.6</f>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C3" s="3">
         <v>0.17</v>
@@ -1768,16 +1931,16 @@
         <v>0.17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C4" s="3">
         <v>0.17</v>
@@ -1786,16 +1949,16 @@
         <v>0.17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C5" s="3">
         <v>0.17</v>
@@ -1804,16 +1967,16 @@
         <v>0.17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C6" s="3">
         <v>0.17</v>
@@ -1822,16 +1985,16 @@
         <v>0.17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C7" s="3">
         <v>0.17</v>
@@ -1840,16 +2003,16 @@
         <v>0.17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C8" s="3">
         <v>0.17</v>
@@ -1858,16 +2021,16 @@
         <v>0.17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C9" s="3">
         <v>0.17</v>
@@ -1876,16 +2039,16 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C10" s="3">
         <v>0.17</v>
@@ -1894,16 +2057,16 @@
         <v>0.17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C11" s="3">
         <v>0.17</v>
@@ -1912,16 +2075,16 @@
         <v>0.17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C12" s="3">
         <v>0.17</v>
@@ -1930,16 +2093,16 @@
         <v>0.17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C13" s="3">
         <v>0.17</v>
@@ -1948,16 +2111,16 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C14" s="3">
         <v>0.17</v>
@@ -1966,16 +2129,16 @@
         <v>0.17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C15" s="3">
         <v>0.17</v>
@@ -1984,16 +2147,16 @@
         <v>0.17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C16" s="3">
         <v>0.17</v>
@@ -2002,16 +2165,16 @@
         <v>0.17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C17" s="3">
         <v>0.17</v>
@@ -2020,16 +2183,16 @@
         <v>0.17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C18" s="3">
         <v>0.17</v>
@@ -2038,16 +2201,16 @@
         <v>0.17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C19" s="3">
         <v>0.17</v>
@@ -2056,16 +2219,16 @@
         <v>0.17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C20" s="3">
         <v>0.17</v>
@@ -2074,16 +2237,16 @@
         <v>0.17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C21" s="3">
         <v>0.17</v>
@@ -2092,16 +2255,16 @@
         <v>0.17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C22" s="3">
         <v>0.17</v>
@@ -2110,16 +2273,16 @@
         <v>0.17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C23" s="3">
         <v>0.17</v>
@@ -2128,16 +2291,16 @@
         <v>0.17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C24" s="3">
         <v>0.17</v>
@@ -2146,16 +2309,16 @@
         <v>0.17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111111111111115E-2</v>
+        <v>3.4444444444444444E-2</v>
       </c>
       <c r="C25" s="3">
         <v>0.17</v>
@@ -2164,7 +2327,7 @@
         <v>0.17</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2177,17 +2340,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
@@ -2195,16 +2358,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2212,11 +2375,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.102/3.6</f>
-        <v>2.8333333333333332E-2</v>
+        <f>0.125/3.6</f>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C2" s="3">
         <f>0.2*1.1</f>
@@ -2227,12 +2390,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B25" si="0">0.102/3.6</f>
@@ -2247,12 +2410,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
@@ -2267,12 +2430,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -2287,12 +2450,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -2307,12 +2470,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -2327,12 +2490,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -2347,12 +2510,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -2367,12 +2530,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -2387,12 +2550,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -2407,12 +2570,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -2427,12 +2590,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -2447,12 +2610,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -2467,12 +2630,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -2487,12 +2650,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -2507,12 +2670,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -2527,12 +2690,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -2547,12 +2710,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
@@ -2567,12 +2730,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -2587,12 +2750,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -2607,12 +2770,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -2627,12 +2790,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -2647,12 +2810,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -2667,12 +2830,12 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -2687,24 +2850,25 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2:A26" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2718,16 +2882,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2735,7 +2899,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -2747,12 +2911,12 @@
         <v>0.6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2764,12 +2928,12 @@
         <v>0.6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2781,12 +2945,12 @@
         <v>0.6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2798,12 +2962,12 @@
         <v>0.6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2815,12 +2979,12 @@
         <v>0.6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2832,12 +2996,12 @@
         <v>0.6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -2849,12 +3013,12 @@
         <v>0.6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -2866,12 +3030,12 @@
         <v>0.6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -2883,12 +3047,12 @@
         <v>0.6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -2900,12 +3064,12 @@
         <v>0.6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2917,12 +3081,12 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2934,12 +3098,12 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2951,12 +3115,12 @@
         <v>0.6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2968,12 +3132,12 @@
         <v>0.6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2985,12 +3149,12 @@
         <v>0.6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -3002,12 +3166,12 @@
         <v>0.6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -3019,12 +3183,12 @@
         <v>0.6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -3036,12 +3200,12 @@
         <v>0.6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -3053,12 +3217,12 @@
         <v>0.6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3070,12 +3234,12 @@
         <v>0.6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3087,12 +3251,12 @@
         <v>0.6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -3104,12 +3268,12 @@
         <v>0.6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -3121,12 +3285,12 @@
         <v>0.6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -3138,7 +3302,7 @@
         <v>0.6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3148,17 +3312,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
@@ -3166,16 +3330,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3183,11 +3347,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.301/3.6</f>
-        <v>8.3611111111111108E-2</v>
+        <f>0.324/3.6</f>
+        <v>0.09</v>
       </c>
       <c r="C2" s="3">
         <f>0.08*1.04</f>
@@ -3198,16 +3362,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="0">0.301/3.6</f>
-        <v>8.3611111111111108E-2</v>
+        <f t="shared" ref="B3:B25" si="0">0.324/3.6</f>
+        <v>0.09</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:D25" si="1">0.08*1.04</f>
@@ -3218,16 +3382,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
@@ -3238,16 +3402,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
@@ -3258,16 +3422,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
@@ -3278,16 +3442,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
@@ -3298,16 +3462,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
@@ -3318,16 +3482,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
@@ -3338,16 +3502,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
@@ -3358,16 +3522,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
@@ -3378,16 +3542,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
@@ -3398,16 +3562,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
@@ -3418,16 +3582,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
@@ -3438,16 +3602,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
@@ -3458,16 +3622,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
@@ -3478,16 +3642,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
@@ -3498,16 +3662,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
@@ -3518,16 +3682,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
@@ -3538,16 +3702,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
@@ -3558,16 +3722,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
@@ -3578,16 +3742,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
@@ -3598,16 +3762,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
@@ -3618,16 +3782,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
@@ -3638,16 +3802,16 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>8.3611111111111108E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
@@ -3658,7 +3822,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3668,11 +3832,531 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <f>((0.398+0.435)/2)/3.6</f>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B25" si="1">((0.398+0.435)/2)/3.6</f>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11569444444444443</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3686,16 +4370,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3703,11 +4387,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>((0.399+0.439)/2)/3.6</f>
-        <v>0.1163888888888889</v>
+        <f>0.023/3.6</f>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
@@ -3718,16 +4402,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="1">((0.399+0.439)/2)/3.6</f>
-        <v>0.1163888888888889</v>
+        <f t="shared" ref="B3:B25" si="1">0.023/3.6</f>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
@@ -3738,16 +4422,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -3758,16 +4442,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
@@ -3778,16 +4462,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -3798,16 +4482,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -3818,16 +4502,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -3838,16 +4522,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -3858,16 +4542,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -3878,16 +4562,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -3898,16 +4582,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -3918,16 +4602,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
@@ -3938,16 +4622,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
@@ -3958,16 +4642,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
@@ -3978,16 +4662,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
@@ -3998,16 +4682,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -4018,16 +4702,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
@@ -4038,16 +4722,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="2"/>
@@ -4058,16 +4742,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="2"/>
@@ -4078,16 +4762,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="2"/>
@@ -4098,16 +4782,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="2"/>
@@ -4118,16 +4802,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="2"/>
@@ -4138,16 +4822,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="2"/>
@@ -4158,16 +4842,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="1"/>
-        <v>0.1163888888888889</v>
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
@@ -4178,527 +4862,7 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <f>0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4711,11 +4875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4729,16 +4893,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -4746,11 +4910,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
+        <f>0.003/3.6</f>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
@@ -4761,16 +4925,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" ref="B3:B25" si="1">0.003/3.6</f>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
@@ -4781,16 +4945,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -4801,16 +4965,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
@@ -4821,16 +4985,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -4841,16 +5005,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -4861,16 +5025,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -4881,16 +5045,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -4901,16 +5065,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -4921,16 +5085,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -4941,16 +5105,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -4961,16 +5125,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
@@ -4981,16 +5145,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
@@ -5001,16 +5165,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
@@ -5021,16 +5185,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
@@ -5041,16 +5205,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -5061,16 +5225,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
@@ -5081,16 +5245,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="2"/>
@@ -5101,16 +5265,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="2"/>
@@ -5121,16 +5285,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="2"/>
@@ -5141,16 +5305,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="2"/>
@@ -5161,16 +5325,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="2"/>
@@ -5181,16 +5345,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="2"/>
@@ -5201,16 +5365,16 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
@@ -5221,7 +5385,7 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5231,11 +5395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5249,16 +5413,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -5266,11 +5430,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
+        <f>0.003/3.6</f>
+        <v>8.3333333333333328E-4</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
@@ -5281,12 +5445,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
@@ -5301,12 +5465,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="1"/>
@@ -5321,12 +5485,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
@@ -5341,12 +5505,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
@@ -5361,12 +5525,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
@@ -5381,12 +5545,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
@@ -5401,12 +5565,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
@@ -5421,12 +5585,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
@@ -5441,12 +5605,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
@@ -5461,12 +5625,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
@@ -5481,12 +5645,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
@@ -5501,12 +5665,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
@@ -5521,12 +5685,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="1"/>
@@ -5541,12 +5705,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="1"/>
@@ -5561,12 +5725,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
@@ -5581,12 +5745,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="1"/>
@@ -5601,12 +5765,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="1"/>
@@ -5621,12 +5785,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="1"/>
@@ -5641,12 +5805,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="1"/>
@@ -5661,12 +5825,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="1"/>
@@ -5681,12 +5845,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="1"/>
@@ -5701,12 +5865,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
@@ -5721,12 +5885,12 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="1"/>
@@ -5741,7 +5905,7 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/CH/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\Speed2Zero\Trails Simulation\New_CH\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDF3FF-1FEE-4D78-B93D-B4EE428675E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED525609-1005-4147-93A0-378410537ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="38900" windowHeight="24800" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId1"/>
@@ -1397,16 +1397,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1872,16 +1872,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -2343,20 +2343,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2393,13 +2393,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B25" si="0">0.102/3.6</f>
-        <v>2.8333333333333332E-2</v>
+        <f t="shared" ref="B3:B25" si="0">0.125/3.6</f>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:D25" si="1">0.2*1.1</f>
@@ -2413,13 +2413,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
@@ -2433,13 +2433,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
@@ -2453,13 +2453,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
@@ -2473,13 +2473,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
@@ -2493,13 +2493,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
@@ -2513,13 +2513,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
@@ -2533,13 +2533,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
@@ -2553,13 +2553,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
@@ -2573,13 +2573,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
@@ -2593,13 +2593,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
@@ -2613,13 +2613,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
@@ -2633,13 +2633,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
@@ -2653,13 +2653,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
@@ -2673,13 +2673,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
@@ -2693,13 +2693,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
@@ -2713,13 +2713,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
@@ -2733,13 +2733,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
@@ -2753,13 +2753,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
@@ -2773,13 +2773,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
@@ -2793,13 +2793,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
@@ -2813,13 +2813,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
@@ -2833,13 +2833,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
@@ -2871,16 +2871,16 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -3315,20 +3315,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -3839,16 +3839,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4359,16 +4359,16 @@
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4882,16 +4882,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -5402,16 +5402,16 @@
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>

--- a/cea/databases/CH/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/CH/components/FEEDSTOCKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED525609-1005-4147-93A0-378410537ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58AF004-C4C4-154C-A936-47A6EEF3F7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="38900" windowHeight="24800" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="2120" windowWidth="47140" windowHeight="26620" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="WOOD" sheetId="32" r:id="rId7"/>
     <sheet name="WETBIOMASS" sheetId="33" r:id="rId8"/>
     <sheet name="DRYBIOMASS" sheetId="34" r:id="rId9"/>
+    <sheet name="ENERGY_CARRIERS" sheetId="35" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -484,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="146">
   <si>
     <t>reference</t>
   </si>
@@ -821,15 +822,276 @@
       <t>, ID 42.011 Kehrichtverbrennung, cost from CEA</t>
     </r>
   </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>qualifier</t>
+  </si>
+  <si>
+    <t>unit_qual</t>
+  </si>
+  <si>
+    <t>mean_qual</t>
+  </si>
+  <si>
+    <t>unit_cost_USD.kWh</t>
+  </si>
+  <si>
+    <t>unit_ghg_kgCO2.kWh</t>
+  </si>
+  <si>
+    <t>Hot air</t>
+  </si>
+  <si>
+    <t>T100A</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Warm air</t>
+  </si>
+  <si>
+    <t>T35A</t>
+  </si>
+  <si>
+    <t>Room temperature air</t>
+  </si>
+  <si>
+    <t>T25A</t>
+  </si>
+  <si>
+    <t>Cold air</t>
+  </si>
+  <si>
+    <t>T10A</t>
+  </si>
+  <si>
+    <t>Cold brine</t>
+  </si>
+  <si>
+    <t>T0B</t>
+  </si>
+  <si>
+    <t>brine</t>
+  </si>
+  <si>
+    <t>Hot water (high temperature)</t>
+  </si>
+  <si>
+    <t>T100W</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Hot water (medium temperature)</t>
+  </si>
+  <si>
+    <t>T60W</t>
+  </si>
+  <si>
+    <t>Warm water (room temperature)</t>
+  </si>
+  <si>
+    <t>T30W</t>
+  </si>
+  <si>
+    <t>Fresh water</t>
+  </si>
+  <si>
+    <t>T20W</t>
+  </si>
+  <si>
+    <t>Cold water</t>
+  </si>
+  <si>
+    <t>T10W</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>T0W</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (low voltage)</t>
+  </si>
+  <si>
+    <t>E230AC</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. 
+price: https://www.ema.gov.sg/Residential_Electricity_Tariffs.aspx 
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (medium voltage)</t>
+  </si>
+  <si>
+    <t>E22kAC</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. price: https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (high voltage)</t>
+  </si>
+  <si>
+    <t>E66kAC</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20elect6ricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres.
+price:https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Cwod</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>chemical composition</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
+  </si>
+  <si>
+    <t>Wet biomass</t>
+  </si>
+  <si>
+    <t>Cwbm</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+  </si>
+  <si>
+    <t>Dry biomass</t>
+  </si>
+  <si>
+    <t>Cdbm</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Ccoa</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.001 Heizöl, cost from CEA</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Cgas</t>
+  </si>
+  <si>
+    <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off,cost from Werke am Zurich see</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Cbig</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.009 Biogas, cost from CEA, cost from Werke am Zurich see</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Chyd</t>
+  </si>
+  <si>
+    <t>https://file.go.gov.sg/studyofhydrogenimportsanddownstreamapplicationsforsingapore.pdf</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Rsun</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>wavelength</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sunlight</t>
+  </si>
+  <si>
+    <t>Ultraviolet</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Infrared light</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -880,8 +1142,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,8 +1169,20 @@
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -931,14 +1218,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,8 +1254,54 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1864,6 +2209,834 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468519ED-3798-6A47-8D33-1999B16E1C77}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="102.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="10">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="10">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="10">
+        <v>100</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="10">
+        <v>60</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="10">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="10">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="12">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="17">
+        <v>230</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="10">
+        <v>22000</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="10">
+        <v>66000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.3024</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="12">
+        <v>200</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
@@ -2343,7 +3516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
@@ -5399,7 +6572,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5433,8 +6606,8 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>0.003/3.6</f>
-        <v>8.3333333333333328E-4</v>
+        <f>0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>

--- a/cea/databases/CH/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/CH/components/FEEDSTOCKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15C70D-FFCE-9C4B-A03B-533BA3868A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A982472-3F41-B441-95FC-85BAC176F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="500" windowWidth="46580" windowHeight="27340" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="46580" windowHeight="27340" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="28" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="OIL" sheetId="30" r:id="rId6"/>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId7"/>
     <sheet name="BIOGAS" sheetId="27" r:id="rId8"/>
-    <sheet name="SOLAR" sheetId="29" r:id="rId9"/>
-    <sheet name="HYDROGEN" sheetId="36" r:id="rId10"/>
+    <sheet name="HYDROGEN" sheetId="36" r:id="rId9"/>
+    <sheet name="SOLAR" sheetId="29" r:id="rId10"/>
     <sheet name="ENERGY_CARRIERS" sheetId="35" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -99,7 +99,7 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91F6A146-4E75-014C-925E-06C33CC2B2BB}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,12 +112,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B71303BF-00AE-9F48-B64E-62E24C7DEA25}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4686B76A-F401-414D-904C-E4BF85BE0E37}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91F6A146-4E75-014C-925E-06C33CC2B2BB}">
       <text>
         <r>
           <rPr>
@@ -504,12 +504,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B71303BF-00AE-9F48-B64E-62E24C7DEA25}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -517,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4686B76A-F401-414D-904C-E4BF85BE0E37}">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="149">
   <si>
     <t>reference</t>
   </si>
@@ -1133,10 +1133,13 @@
     <t>Infrared light</t>
   </si>
   <si>
-    <t>Shall we update the ghg and cost based on the SOLAR Tab?</t>
-  </si>
-  <si>
     <t>This should be linked to GRID Tab</t>
+  </si>
+  <si>
+    <t>to be deleted</t>
+  </si>
+  <si>
+    <t>Shall we update the SOLAR Tab and change everything to zero?</t>
   </si>
 </sst>
 </file>
@@ -2340,17 +2343,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230A53B8-EB6F-684C-8324-7AC0C54FE34E}">
-  <dimension ref="A1:N64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P73" sqref="I48:P73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,16 +2381,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2392,16 +2398,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,16 +2415,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2426,16 +2432,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2443,16 +2449,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2460,16 +2466,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2477,16 +2483,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2494,16 +2500,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2511,16 +2517,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2528,16 +2534,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,16 +2551,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2562,16 +2568,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2579,16 +2585,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2596,16 +2602,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2613,16 +2619,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2630,16 +2636,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2647,16 +2653,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2664,16 +2670,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2681,16 +2687,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2698,16 +2704,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2715,16 +2721,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2732,16 +2738,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,16 +2755,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2766,21 +2772,17 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.2261</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0.2261</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468519ED-3798-6A47-8D33-1999B16E1C77}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3196,7 +3198,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,7 +3553,7 @@
         <v>142</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3616,6 +3618,11 @@
       </c>
       <c r="J26" s="15" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7177,20 +7184,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230A53B8-EB6F-684C-8324-7AC0C54FE34E}">
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="P73" sqref="I48:P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -7215,16 +7219,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7232,16 +7236,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7249,16 +7253,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7266,16 +7270,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7283,16 +7287,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7300,16 +7304,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7317,16 +7321,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7334,16 +7338,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -7351,16 +7355,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7368,16 +7372,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7385,16 +7389,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7402,16 +7406,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7419,16 +7423,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7436,16 +7440,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7453,16 +7457,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7470,16 +7474,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7487,16 +7491,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -7504,16 +7508,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7521,16 +7525,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7538,16 +7542,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -7555,16 +7559,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -7572,16 +7576,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -7589,16 +7593,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -7606,17 +7610,21 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.2261</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.2261</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cea/databases/CH/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/CH/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A982472-3F41-B441-95FC-85BAC176F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55508D0-6115-4D27-BA0B-2DAC9297D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="46580" windowHeight="27340" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="28" r:id="rId1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="154">
   <si>
     <t>reference</t>
   </si>
@@ -894,12 +894,6 @@
     <t>mean_qual</t>
   </si>
   <si>
-    <t>unit_cost_USD.kWh</t>
-  </si>
-  <si>
-    <t>unit_ghg_kgCO2.kWh</t>
-  </si>
-  <si>
     <t>Hot air</t>
   </si>
   <si>
@@ -1133,13 +1127,34 @@
     <t>Infrared light</t>
   </si>
   <si>
-    <t>This should be linked to GRID Tab</t>
-  </si>
-  <si>
-    <t>to be deleted</t>
-  </si>
-  <si>
-    <t>Shall we update the SOLAR Tab and change everything to zero?</t>
+    <t>cost_and_ghg_tab</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>WETBIOMASS</t>
+  </si>
+  <si>
+    <t>DRYBIOMASS</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1221,7 +1236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,12 +1258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,9 +1302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1306,14 +1313,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,13 +1341,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,7 +1362,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,22 +1374,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1826,16 +1822,16 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +1948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1972,7 +1968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2032,7 +2028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2272,7 +2268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -2346,20 +2342,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2495,7 +2491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2597,7 +2593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2682,7 +2678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2733,7 +2729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2750,7 +2746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -2792,19 +2788,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468519ED-3798-6A47-8D33-1999B16E1C77}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="9" width="10.83203125" style="21"/>
-    <col min="10" max="10" width="102.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="102.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>61</v>
       </c>
@@ -2826,803 +2820,717 @@
       <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="10">
         <v>100</v>
       </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G3" s="10">
         <v>35</v>
       </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G4" s="10">
         <v>25</v>
       </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="10">
         <v>60</v>
       </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="10">
         <v>30</v>
       </c>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="10">
         <v>20</v>
       </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="12">
         <v>10</v>
       </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="17">
         <v>230</v>
       </c>
-      <c r="H13" s="25">
-        <v>0.21</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="C14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="G14" s="10">
         <v>22000</v>
       </c>
-      <c r="H14" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="H14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="C15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="G15" s="10">
         <v>66000</v>
       </c>
-      <c r="H15" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="H15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="I16" s="24">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="C17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="I17" s="24">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="G18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="I18" s="24">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="E20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="F20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0.08</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0.3024</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="F21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="24">
-        <v>0.09</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0.24060000000000001</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="F22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="B23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="I22" s="24">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="G23" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="14" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="B24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0.2261</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="E24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="G25" s="12">
         <v>200</v>
       </c>
-      <c r="H25" s="24">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24">
-        <v>0</v>
-      </c>
-      <c r="J25" s="15" t="s">
+      <c r="H25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="G26" s="12">
         <v>1500</v>
       </c>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="21" t="s">
-        <v>147</v>
+      <c r="H26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3638,16 +3546,16 @@
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3664,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3684,7 +3592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3704,7 +3612,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3724,7 +3632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3784,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3804,7 +3712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3824,7 +3732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3844,7 +3752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3864,7 +3772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3924,7 +3832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +3872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3984,7 +3892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -4004,7 +3912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4024,7 +3932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4044,7 +3952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -4064,7 +3972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -4084,7 +3992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4124,7 +4032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4161,16 +4069,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4187,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4207,7 +4115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4227,7 +4135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4247,7 +4155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4267,7 +4175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4307,7 +4215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4327,7 +4235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4347,7 +4255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4367,7 +4275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +4295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -4407,7 +4315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4427,7 +4335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4447,7 +4355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -4467,7 +4375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4487,7 +4395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4507,7 +4415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -4527,7 +4435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4547,7 +4455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4567,7 +4475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -4587,7 +4495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -4607,7 +4515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -4627,7 +4535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4647,7 +4555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4681,16 +4589,16 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4707,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4727,7 +4635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4767,7 +4675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4787,7 +4695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4807,7 +4715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4847,7 +4755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4867,7 +4775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4887,7 +4795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -4927,7 +4835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4967,7 +4875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -4987,7 +4895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5007,7 +4915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5027,7 +4935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -5047,7 +4955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -5067,7 +4975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -5087,7 +4995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -5107,7 +5015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -5127,7 +5035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -5147,7 +5055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -5167,7 +5075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -5201,16 +5109,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5247,7 +5155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5267,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5287,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5307,7 +5215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5327,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5347,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5367,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5387,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5407,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -5427,7 +5335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -5447,7 +5355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -5467,7 +5375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -5487,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -5507,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5527,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5547,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -5567,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -5587,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -5607,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -5627,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -5667,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -5687,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -5721,16 +5629,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5747,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5767,7 +5675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5787,7 +5695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +5715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5827,7 +5735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5847,7 +5755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5867,7 +5775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5887,7 +5795,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5927,7 +5835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -5947,7 +5855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -5967,7 +5875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -5987,7 +5895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -6007,7 +5915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -6027,7 +5935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -6047,7 +5955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -6067,7 +5975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -6087,7 +5995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -6107,7 +6015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -6127,7 +6035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -6147,7 +6055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -6167,7 +6075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -6187,7 +6095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -6241,16 +6149,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6267,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6285,7 +6193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -6303,7 +6211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -6321,7 +6229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -6339,7 +6247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -6357,7 +6265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6393,7 +6301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6411,7 +6319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6429,7 +6337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6447,7 +6355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -6465,7 +6373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -6483,7 +6391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -6501,7 +6409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -6519,7 +6427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -6537,7 +6445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -6555,7 +6463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -6573,7 +6481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -6591,7 +6499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -6609,7 +6517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -6627,7 +6535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -6645,7 +6553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -6663,7 +6571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -6681,7 +6589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -6716,16 +6624,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6742,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6760,7 +6668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -6778,7 +6686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -6814,7 +6722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -6832,7 +6740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -6850,7 +6758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6868,7 +6776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6886,7 +6794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6904,7 +6812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6922,7 +6830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -6940,7 +6848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -6958,7 +6866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -6976,7 +6884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -6994,7 +6902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -7012,7 +6920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -7030,7 +6938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -7048,7 +6956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -7066,7 +6974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -7084,7 +6992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -7102,7 +7010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -7120,7 +7028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -7138,7 +7046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -7156,7 +7064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -7191,13 +7099,13 @@
       <selection activeCell="P73" sqref="I48:P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7214,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -7228,10 +7136,10 @@
         <v>0.2261</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -7245,10 +7153,10 @@
         <v>0.2261</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -7262,10 +7170,10 @@
         <v>0.2261</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -7279,10 +7187,10 @@
         <v>0.2261</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -7296,10 +7204,10 @@
         <v>0.2261</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -7313,10 +7221,10 @@
         <v>0.2261</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7330,10 +7238,10 @@
         <v>0.2261</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7347,10 +7255,10 @@
         <v>0.2261</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7364,10 +7272,10 @@
         <v>0.2261</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -7381,10 +7289,10 @@
         <v>0.2261</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -7398,10 +7306,10 @@
         <v>0.2261</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -7415,10 +7323,10 @@
         <v>0.2261</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -7432,10 +7340,10 @@
         <v>0.2261</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -7449,10 +7357,10 @@
         <v>0.2261</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -7466,10 +7374,10 @@
         <v>0.2261</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -7483,10 +7391,10 @@
         <v>0.2261</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -7500,10 +7408,10 @@
         <v>0.2261</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -7517,10 +7425,10 @@
         <v>0.2261</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -7534,10 +7442,10 @@
         <v>0.2261</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -7551,10 +7459,10 @@
         <v>0.2261</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -7568,10 +7476,10 @@
         <v>0.2261</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -7585,10 +7493,10 @@
         <v>0.2261</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -7602,10 +7510,10 @@
         <v>0.2261</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -7619,10 +7527,10 @@
         <v>0.2261</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
